--- a/Lanzamiento del proyecto/Bitacoras/Bitacora Lider Desarrollo.xlsx
+++ b/Lanzamiento del proyecto/Bitacoras/Bitacora Lider Desarrollo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\METFOR\METFOR\Lanzamiento del proyecto\Bitacoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
   <si>
     <t>METFOR</t>
   </si>
@@ -125,9 +125,6 @@
     <t>0 minutos</t>
   </si>
   <si>
-    <t xml:space="preserve">acta de constitución </t>
-  </si>
-  <si>
     <t>asignación de roles</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>Subida de todos los documentos y actualización página del grupo</t>
+  </si>
+  <si>
+    <t>Lanzamiento</t>
   </si>
 </sst>
 </file>
@@ -226,10 +226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="174" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
+    <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +281,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -560,9 +568,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -581,6 +589,63 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,75 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Euro" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -760,13 +757,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>227255</xdr:colOff>
+      <xdr:colOff>182431</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>128196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>413721</xdr:colOff>
+      <xdr:colOff>368897</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>303456</xdr:rowOff>
     </xdr:to>
@@ -785,7 +782,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9631231" y="2521772"/>
+          <a:off x="12813702" y="2521772"/>
           <a:ext cx="186466" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -809,13 +806,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>215152</xdr:colOff>
+      <xdr:colOff>188258</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>17929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>412375</xdr:colOff>
+      <xdr:colOff>385481</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>206188</xdr:rowOff>
     </xdr:to>
@@ -834,7 +831,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11232776" y="2922494"/>
+          <a:off x="12819529" y="2752164"/>
           <a:ext cx="197223" cy="188259"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -858,13 +855,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>206188</xdr:colOff>
+      <xdr:colOff>170330</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>17929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>421340</xdr:colOff>
+      <xdr:colOff>385482</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -883,7 +880,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11223812" y="3146611"/>
+          <a:off x="12801601" y="2976282"/>
           <a:ext cx="215152" cy="197224"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -907,13 +904,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>224117</xdr:colOff>
+      <xdr:colOff>170329</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>421340</xdr:colOff>
+      <xdr:colOff>367552</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>8965</xdr:rowOff>
     </xdr:to>
@@ -932,8 +929,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11241741" y="3343835"/>
-          <a:ext cx="197223" cy="188259"/>
+          <a:off x="12801600" y="3173506"/>
+          <a:ext cx="197223" cy="197224"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
           <a:avLst/>
@@ -956,13 +953,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>224115</xdr:colOff>
+      <xdr:colOff>188257</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>421338</xdr:colOff>
+      <xdr:colOff>385480</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>8964</xdr:rowOff>
     </xdr:to>
@@ -981,8 +978,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11241739" y="3523129"/>
-          <a:ext cx="197223" cy="188259"/>
+          <a:off x="12819528" y="3361765"/>
+          <a:ext cx="197223" cy="197223"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
           <a:avLst/>
@@ -1012,15 +1009,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
+      <xdr:colOff>188258</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>71717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>421341</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:colOff>385481</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>251011</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1037,8 +1034,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11241742" y="3702424"/>
-          <a:ext cx="197223" cy="188259"/>
+          <a:off x="12819529" y="3621741"/>
+          <a:ext cx="197223" cy="179294"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
           <a:avLst/>
@@ -1068,15 +1065,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>206188</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
+      <xdr:colOff>170329</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>403411</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>394446</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>251011</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1093,8 +1090,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11223812" y="3872753"/>
-          <a:ext cx="197223" cy="188259"/>
+          <a:off x="12801600" y="3872752"/>
+          <a:ext cx="224117" cy="242047"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
           <a:avLst/>
@@ -1124,15 +1121,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>206188</xdr:colOff>
+      <xdr:colOff>179294</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
+      <xdr:rowOff>304799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>403411</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>170330</xdr:rowOff>
+      <xdr:rowOff>170329</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1149,8 +1146,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11223812" y="4043083"/>
-          <a:ext cx="197223" cy="188259"/>
+          <a:off x="12810565" y="4168587"/>
+          <a:ext cx="224117" cy="179295"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
           <a:avLst/>
@@ -1236,9 +1233,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>206188</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>295835</xdr:rowOff>
+      <xdr:colOff>188258</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -1261,8 +1258,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11223812" y="4536141"/>
-          <a:ext cx="197223" cy="188259"/>
+          <a:off x="12819529" y="5414682"/>
+          <a:ext cx="215153" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
           <a:avLst/>
@@ -1292,15 +1289,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>215153</xdr:colOff>
+      <xdr:colOff>206188</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>26894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>412376</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:colOff>394447</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>295835</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1317,8 +1314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11232777" y="4724400"/>
-          <a:ext cx="197223" cy="188259"/>
+          <a:off x="12837459" y="5746376"/>
+          <a:ext cx="188259" cy="268941"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
           <a:avLst/>
@@ -1701,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
-  <dimension ref="B2:J59"/>
+  <dimension ref="B2:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1713,8 +1710,7 @@
     <col min="2" max="2" width="10.5546875" style="2" customWidth="1"/>
     <col min="3" max="4" width="11.44140625" style="2"/>
     <col min="5" max="5" width="18.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="41.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.5546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.44140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="7.5546875" style="2" customWidth="1"/>
@@ -1748,7 +1744,7 @@
     <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1783,367 +1779,376 @@
     </row>
     <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="37" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="21"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="2:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="30">
+      <c r="B15" s="40"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="38"/>
+    </row>
+    <row r="16" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="18">
         <v>43137</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="19">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="19">
         <v>0.91527777777777775</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="32">
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="34">
+    <row r="17" spans="2:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="22">
         <v>43133</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="38">
+      <c r="C17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="26">
         <v>0.75694444444444453</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>33</v>
+      <c r="F17" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>32</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="36">
+      <c r="J17" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37">
+      <c r="L17" s="49"/>
+    </row>
+    <row r="18" spans="2:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="25">
         <v>43137</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="D18" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="37">
+    <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="25">
         <v>43137</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="E19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="25">
+        <v>43133</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="37">
-        <v>43133</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="40" t="s">
+      <c r="F20" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="2:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="25">
+        <v>43136</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="37">
-        <v>43136</v>
-      </c>
-      <c r="C21" s="40" t="s">
+      <c r="F21" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="2:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="25">
+        <v>43137</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="40" t="s">
+      <c r="D22" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F22" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="36"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="37">
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="25">
         <v>43137</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C23" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D23" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F23" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="36"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="37">
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="2:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="22">
         <v>43137</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D24" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E24" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F24" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="36"/>
-    </row>
-    <row r="24" spans="2:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="B24" s="34">
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="2:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="25">
         <v>43137</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C25" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D25" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E25" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F25" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="36"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="37">
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="25">
         <v>43137</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C26" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D26" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E26" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F26" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="36"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="37">
-        <v>43137</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="40" t="s">
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="2:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="22">
+        <v>43138</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="2:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="B27" s="34">
-        <v>43138</v>
-      </c>
-      <c r="C27" s="35" t="s">
+      <c r="F27" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="36"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="43"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="43"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="36"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="31"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="31"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="44"/>
+      <c r="F30" s="32"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="44"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="44"/>
+      <c r="F32" s="32"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
@@ -2154,7 +2159,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="44"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
@@ -2165,7 +2170,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="44"/>
+      <c r="F34" s="32"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -2176,7 +2181,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="44"/>
+      <c r="F35" s="32"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
@@ -2187,7 +2192,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="44"/>
+      <c r="F36" s="32"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
@@ -2198,7 +2203,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="44"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
@@ -2481,164 +2486,164 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
@@ -2765,133 +2770,133 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29" t="s">
+      <c r="C49" s="48"/>
+      <c r="D49" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
       <c r="G49" s="14" t="s">
         <v>15</v>
       </c>
